--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/RHODE_ISLAND_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/RHODE_ISLAND_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C8">
@@ -527,7 +527,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C12">
@@ -553,7 +553,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -727,7 +727,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C29">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C30">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C31">
@@ -815,7 +815,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C33">
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C38">
@@ -911,7 +911,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C40">
@@ -924,7 +924,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C41">
@@ -963,7 +963,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C44">
@@ -976,7 +976,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C45">
@@ -1041,7 +1041,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C50">
@@ -1085,7 +1085,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C53">
@@ -1137,7 +1137,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C57">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C61">
@@ -1246,7 +1246,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C87">
@@ -1622,7 +1622,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C92">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C98">
@@ -1925,7 +1925,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C131">
@@ -2177,41 +2177,6 @@
       </c>
       <c r="D131">
         <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/RHODE_ISLAND_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/RHODE_ISLAND_2024.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Chenalhó</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Marqués De Comillas</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Milpa Alta</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Valle De Chalco Solidaridad</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Total</t>
@@ -826,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -839,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Pueblo Nuevo</t>
@@ -852,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -865,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -896,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Acatepec</t>
@@ -909,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -922,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -935,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -948,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -961,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -974,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Ixcateopan De Cuauhtémoc</t>
@@ -987,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -1000,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -1013,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -1026,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -1039,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -1052,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1083,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Atotonilco De Tula</t>
@@ -1096,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -1109,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Chilcuautla</t>
@@ -1122,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1135,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -1148,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Tlahuiltepa</t>
@@ -1161,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -1174,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1205,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1218,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Tuxcacuesco</t>
@@ -1231,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1262,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1275,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -1288,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Tzitzio</t>
@@ -1301,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1314,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -1327,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -1340,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1371,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Yecapixtla</t>
@@ -1384,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1415,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -1428,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1459,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>El Espinal</t>
@@ -1472,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>San Mateo Piñas</t>
@@ -1485,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Santa Cruz Zenzontepec</t>
@@ -1498,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Santa María Tonameca</t>
@@ -1511,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Santiago Llano Grande</t>
@@ -1524,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Santiago Yaitepec</t>
@@ -1537,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -1550,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Teotitlán De Flores Magón</t>
@@ -1563,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1594,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -1607,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Hueytlalpan</t>
@@ -1620,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Ixcamilpa De Guerrero</t>
@@ -1633,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -1646,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1659,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -1672,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Tepeojuma</t>
@@ -1685,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1716,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1747,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1778,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>San Ignacio Río Muerto</t>
@@ -1791,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1822,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1853,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -1866,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1897,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -1910,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1941,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Chiconamel</t>
@@ -1954,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -1967,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Comapa</t>
@@ -1980,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Cuitláhuac</t>
@@ -1993,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -2006,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -2019,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Juan Rodríguez Clara</t>
@@ -2032,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -2045,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -2058,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -2071,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Tlaltetela</t>
@@ -2084,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Totutla</t>
@@ -2097,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2110,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2141,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -2154,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Total</t>
